--- a/00.data/01.incertezas/merged_uncertainty_indices.xlsx
+++ b/00.data/01.incertezas/merged_uncertainty_indices.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D790"/>
+  <dimension ref="A1:D792"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3972,7 +3972,7 @@
         <v>35431</v>
       </c>
       <c r="B448">
-        <v>78.94667007049736</v>
+        <v>78.88172911601586</v>
       </c>
       <c r="D448">
         <v>26.79430816055774</v>
@@ -3983,7 +3983,7 @@
         <v>35462</v>
       </c>
       <c r="B449">
-        <v>75.71017964631693</v>
+        <v>75.63586895472635</v>
       </c>
       <c r="D449">
         <v>35.15929037279584</v>
@@ -3994,7 +3994,7 @@
         <v>35490</v>
       </c>
       <c r="B450">
-        <v>64.69414573478578</v>
+        <v>64.61026303941573</v>
       </c>
       <c r="D450">
         <v>30.29108998670148</v>
@@ -4005,7 +4005,7 @@
         <v>35521</v>
       </c>
       <c r="B451">
-        <v>71.77661238591965</v>
+        <v>71.7409153781858</v>
       </c>
       <c r="D451">
         <v>32.08635956621232</v>
@@ -4016,7 +4016,7 @@
         <v>35551</v>
       </c>
       <c r="B452">
-        <v>82.45633451001416</v>
+        <v>82.41257274010701</v>
       </c>
       <c r="D452">
         <v>33.63899132861557</v>
@@ -4027,7 +4027,7 @@
         <v>35582</v>
       </c>
       <c r="B453">
-        <v>82.90348411044076</v>
+        <v>82.85556613851293</v>
       </c>
       <c r="D453">
         <v>34.3660237997538</v>
@@ -4038,7 +4038,7 @@
         <v>35612</v>
       </c>
       <c r="B454">
-        <v>66.45157363383683</v>
+        <v>66.50030625934696</v>
       </c>
       <c r="D454">
         <v>30.62748373705926</v>
@@ -4049,7 +4049,7 @@
         <v>35643</v>
       </c>
       <c r="B455">
-        <v>58.28023704690649</v>
+        <v>58.23589172410215</v>
       </c>
       <c r="D455">
         <v>27.38005526249686</v>
@@ -4060,7 +4060,7 @@
         <v>35674</v>
       </c>
       <c r="B456">
-        <v>61.01315834459617</v>
+        <v>60.9561807658015</v>
       </c>
       <c r="D456">
         <v>33.76015819045553</v>
@@ -4071,7 +4071,7 @@
         <v>35704</v>
       </c>
       <c r="B457">
-        <v>76.09987334353833</v>
+        <v>76.10270761588991</v>
       </c>
       <c r="D457">
         <v>36.76305761040125</v>
@@ -4082,7 +4082,7 @@
         <v>35735</v>
       </c>
       <c r="B458">
-        <v>84.61943119509115</v>
+        <v>84.54287480749029</v>
       </c>
       <c r="D458">
         <v>47.08053373710609</v>
@@ -4093,7 +4093,7 @@
         <v>35765</v>
       </c>
       <c r="B459">
-        <v>93.08123833421033</v>
+        <v>92.99636080270791</v>
       </c>
       <c r="D459">
         <v>31.96717400639344</v>
@@ -4104,7 +4104,7 @@
         <v>35796</v>
       </c>
       <c r="B460">
-        <v>88.85261285438546</v>
+        <v>88.80542842904607</v>
       </c>
       <c r="D460">
         <v>30.68600263672319</v>
@@ -4115,7 +4115,7 @@
         <v>35827</v>
       </c>
       <c r="B461">
-        <v>76.31687912659966</v>
+        <v>76.31219724080658</v>
       </c>
       <c r="D461">
         <v>25.52968123687727</v>
@@ -4126,7 +4126,7 @@
         <v>35855</v>
       </c>
       <c r="B462">
-        <v>76.57578385433995</v>
+        <v>76.49184034039831</v>
       </c>
       <c r="D462">
         <v>29.84241487397484</v>
@@ -4137,7 +4137,7 @@
         <v>35886</v>
       </c>
       <c r="B463">
-        <v>72.08736344916646</v>
+        <v>72.05325594701561</v>
       </c>
       <c r="D463">
         <v>30.76646679691886</v>
@@ -4148,7 +4148,7 @@
         <v>35916</v>
       </c>
       <c r="B464">
-        <v>78.58931545533227</v>
+        <v>78.55399794716824</v>
       </c>
       <c r="D464">
         <v>25.65856996236743</v>
@@ -4159,7 +4159,7 @@
         <v>35947</v>
       </c>
       <c r="B465">
-        <v>76.74194181233001</v>
+        <v>76.69198401296532</v>
       </c>
       <c r="D465">
         <v>33.53731570809468</v>
@@ -4170,7 +4170,7 @@
         <v>35977</v>
       </c>
       <c r="B466">
-        <v>92.41727833169053</v>
+        <v>92.38793384344818</v>
       </c>
       <c r="D466">
         <v>36.33124721655767</v>
@@ -4181,7 +4181,7 @@
         <v>36008</v>
       </c>
       <c r="B467">
-        <v>103.8772378658909</v>
+        <v>103.7408166290898</v>
       </c>
       <c r="D467">
         <v>32.31396056760174</v>
@@ -4192,7 +4192,7 @@
         <v>36039</v>
       </c>
       <c r="B468">
-        <v>142.424971704934</v>
+        <v>142.2620299025487</v>
       </c>
       <c r="D468">
         <v>32.45070422535211</v>
@@ -4203,7 +4203,7 @@
         <v>36069</v>
       </c>
       <c r="B469">
-        <v>108.780193616002</v>
+        <v>108.7567106317408</v>
       </c>
       <c r="D469">
         <v>33.76769557123685</v>
@@ -4214,7 +4214,7 @@
         <v>36100</v>
       </c>
       <c r="B470">
-        <v>90.43056303305593</v>
+        <v>90.38910998478227</v>
       </c>
       <c r="D470">
         <v>30.20467045352087</v>
@@ -4225,7 +4225,7 @@
         <v>36130</v>
       </c>
       <c r="B471">
-        <v>89.19758324142516</v>
+        <v>89.17130879864598</v>
       </c>
       <c r="D471">
         <v>35.70021095579201</v>
@@ -4236,7 +4236,7 @@
         <v>36161</v>
       </c>
       <c r="B472">
-        <v>91.45915366540146</v>
+        <v>91.41169161626863</v>
       </c>
       <c r="D472">
         <v>34.19077996282613</v>
@@ -4247,7 +4247,7 @@
         <v>36192</v>
       </c>
       <c r="B473">
-        <v>74.70584889177702</v>
+        <v>74.6885824810598</v>
       </c>
       <c r="D473">
         <v>34.41053261520048</v>
@@ -4258,7 +4258,7 @@
         <v>36220</v>
       </c>
       <c r="B474">
-        <v>56.56446752800208</v>
+        <v>56.53704810554756</v>
       </c>
       <c r="D474">
         <v>39.11342894393742</v>
@@ -4269,7 +4269,7 @@
         <v>36251</v>
       </c>
       <c r="B475">
-        <v>63.31380305320315</v>
+        <v>63.33413610031029</v>
       </c>
       <c r="D475">
         <v>34.92721618820136</v>
@@ -4280,7 +4280,7 @@
         <v>36281</v>
       </c>
       <c r="B476">
-        <v>67.36241079288592</v>
+        <v>67.33185877348713</v>
       </c>
       <c r="D476">
         <v>30.32059571052749</v>
@@ -4291,7 +4291,7 @@
         <v>36312</v>
       </c>
       <c r="B477">
-        <v>66.97490319393174</v>
+        <v>66.93554570991243</v>
       </c>
       <c r="D477">
         <v>33.0491863062406</v>
@@ -4302,7 +4302,7 @@
         <v>36342</v>
       </c>
       <c r="B478">
-        <v>70.06403637444731</v>
+        <v>70.01122291021774</v>
       </c>
       <c r="D478">
         <v>31.69572107765451</v>
@@ -4313,7 +4313,7 @@
         <v>36373</v>
       </c>
       <c r="B479">
-        <v>67.62057838897772</v>
+        <v>67.66068809319977</v>
       </c>
       <c r="D479">
         <v>32.25347436323104</v>
@@ -4324,7 +4324,7 @@
         <v>36404</v>
       </c>
       <c r="B480">
-        <v>61.5941712611638</v>
+        <v>61.61684192890461</v>
       </c>
       <c r="D480">
         <v>30.38519072550486</v>
@@ -4335,7 +4335,7 @@
         <v>36434</v>
       </c>
       <c r="B481">
-        <v>66.00819815994139</v>
+        <v>65.96760368359179</v>
       </c>
       <c r="D481">
         <v>32.63973888208894</v>
@@ -4346,7 +4346,7 @@
         <v>36465</v>
       </c>
       <c r="B482">
-        <v>65.03922577131399</v>
+        <v>65.05732046258142</v>
       </c>
       <c r="D482">
         <v>48.94195531386688</v>
@@ -4357,7 +4357,7 @@
         <v>36495</v>
       </c>
       <c r="B483">
-        <v>57.90862752446549</v>
+        <v>57.92363843517686</v>
       </c>
       <c r="D483">
         <v>41.58353964858303</v>
@@ -4368,7 +4368,7 @@
         <v>36526</v>
       </c>
       <c r="B484">
-        <v>66.36367472810343</v>
+        <v>66.36937686325349</v>
       </c>
       <c r="D484">
         <v>32.11734816164134</v>
@@ -4379,7 +4379,7 @@
         <v>36557</v>
       </c>
       <c r="B485">
-        <v>55.56560179996278</v>
+        <v>55.56712223882615</v>
       </c>
       <c r="D485">
         <v>28.17585620597523</v>
@@ -4390,7 +4390,7 @@
         <v>36586</v>
       </c>
       <c r="B486">
-        <v>60.52590524519301</v>
+        <v>60.53040614362065</v>
       </c>
       <c r="D486">
         <v>36.83850616548651</v>
@@ -4401,7 +4401,7 @@
         <v>36617</v>
       </c>
       <c r="B487">
-        <v>61.61076126343306</v>
+        <v>61.61349384977663</v>
       </c>
       <c r="D487">
         <v>35.28104006572906</v>
@@ -4412,7 +4412,7 @@
         <v>36647</v>
       </c>
       <c r="B488">
-        <v>81.41416411142971</v>
+        <v>81.41720614975051</v>
       </c>
       <c r="D488">
         <v>49.32756293917819</v>
@@ -4423,7 +4423,7 @@
         <v>36678</v>
       </c>
       <c r="B489">
-        <v>85.18782204968468</v>
+        <v>85.19201386611233</v>
       </c>
       <c r="D489">
         <v>27.36688135513247</v>
@@ -4434,7 +4434,7 @@
         <v>36708</v>
       </c>
       <c r="B490">
-        <v>63.40957277692014</v>
+        <v>63.41370315600142</v>
       </c>
       <c r="D490">
         <v>31.94444444444445</v>
@@ -4445,7 +4445,7 @@
         <v>36739</v>
       </c>
       <c r="B491">
-        <v>52.79076046105389</v>
+        <v>52.79341073984149</v>
       </c>
       <c r="D491">
         <v>29.21261803935777</v>
@@ -4456,7 +4456,7 @@
         <v>36770</v>
       </c>
       <c r="B492">
-        <v>61.66180018325815</v>
+        <v>61.66484636111075</v>
       </c>
       <c r="D492">
         <v>33.43174713442168</v>
@@ -4467,7 +4467,7 @@
         <v>36800</v>
       </c>
       <c r="B493">
-        <v>67.71701300966528</v>
+        <v>67.72110406580776</v>
       </c>
       <c r="D493">
         <v>25.48113774315842</v>
@@ -4478,7 +4478,7 @@
         <v>36831</v>
       </c>
       <c r="B494">
-        <v>93.83444435680651</v>
+        <v>93.83541312982821</v>
       </c>
       <c r="D494">
         <v>26.90486439948343</v>
@@ -4489,7 +4489,7 @@
         <v>36861</v>
       </c>
       <c r="B495">
-        <v>94.65714033124286</v>
+        <v>94.66183915404399</v>
       </c>
       <c r="D495">
         <v>29.81667404318759</v>
@@ -4500,7 +4500,7 @@
         <v>36892</v>
       </c>
       <c r="B496">
-        <v>93.35021454472034</v>
+        <v>93.3555846028043</v>
       </c>
       <c r="D496">
         <v>25.98787232624775</v>
@@ -4511,7 +4511,7 @@
         <v>36923</v>
       </c>
       <c r="B497">
-        <v>93.58922036610021</v>
+        <v>93.59337463522466</v>
       </c>
       <c r="D497">
         <v>20.64627646804629</v>
@@ -4522,7 +4522,7 @@
         <v>36951</v>
       </c>
       <c r="B498">
-        <v>104.0885683926495</v>
+        <v>104.0945070837737</v>
       </c>
       <c r="D498">
         <v>25.07863640227833</v>
@@ -4533,7 +4533,7 @@
         <v>36982</v>
       </c>
       <c r="B499">
-        <v>95.96034753958428</v>
+        <v>95.96301122819013</v>
       </c>
       <c r="D499">
         <v>34.3147347471004</v>
@@ -4544,7 +4544,7 @@
         <v>37012</v>
       </c>
       <c r="B500">
-        <v>76.2284313527645</v>
+        <v>76.23125947664855</v>
       </c>
       <c r="D500">
         <v>27.79333821691731</v>
@@ -4555,7 +4555,7 @@
         <v>37043</v>
       </c>
       <c r="B501">
-        <v>70.38369419641894</v>
+        <v>70.38790848777758</v>
       </c>
       <c r="D501">
         <v>30.15970937007334</v>
@@ -4566,7 +4566,7 @@
         <v>37073</v>
       </c>
       <c r="B502">
-        <v>89.31655703947906</v>
+        <v>89.31964965010265</v>
       </c>
       <c r="D502">
         <v>34.29895712630359</v>
@@ -4577,7 +4577,7 @@
         <v>37104</v>
       </c>
       <c r="B503">
-        <v>78.62699833509828</v>
+        <v>78.63095877168659</v>
       </c>
       <c r="D503">
         <v>28.28561572956192</v>
@@ -4588,7 +4588,7 @@
         <v>37135</v>
       </c>
       <c r="B504">
-        <v>157.8679292925907</v>
+        <v>157.8723655824944</v>
       </c>
       <c r="D504">
         <v>24.12961047914512</v>
@@ -4599,7 +4599,7 @@
         <v>37165</v>
       </c>
       <c r="B505">
-        <v>149.6570933968628</v>
+        <v>149.6623063911168</v>
       </c>
       <c r="D505">
         <v>24.04201024948858</v>
@@ -4610,7 +4610,7 @@
         <v>37196</v>
       </c>
       <c r="B506">
-        <v>116.1833155135397</v>
+        <v>116.1887525114461</v>
       </c>
       <c r="D506">
         <v>33.66046643789207</v>
@@ -4621,7 +4621,7 @@
         <v>37226</v>
       </c>
       <c r="B507">
-        <v>100.5807554447116</v>
+        <v>100.5869565895578</v>
       </c>
       <c r="D507">
         <v>34.28891325138206</v>
@@ -4632,7 +4632,7 @@
         <v>37257</v>
       </c>
       <c r="B508">
-        <v>99.52198232511564</v>
+        <v>99.52874514680569</v>
       </c>
       <c r="D508">
         <v>31.63412870571222</v>
@@ -4643,7 +4643,7 @@
         <v>37288</v>
       </c>
       <c r="B509">
-        <v>80.76180741308836</v>
+        <v>80.76623809411846</v>
       </c>
       <c r="D509">
         <v>31.94888178913738</v>
@@ -4654,7 +4654,7 @@
         <v>37316</v>
       </c>
       <c r="B510">
-        <v>74.59308217829181</v>
+        <v>74.59895293555981</v>
       </c>
       <c r="D510">
         <v>53.87744504067855</v>
@@ -4665,7 +4665,7 @@
         <v>37347</v>
       </c>
       <c r="B511">
-        <v>79.13284503161975</v>
+        <v>79.13781955667604</v>
       </c>
       <c r="D511">
         <v>36.55340475424158</v>
@@ -4676,7 +4676,7 @@
         <v>37377</v>
       </c>
       <c r="B512">
-        <v>77.96822830243879</v>
+        <v>77.9733241571243</v>
       </c>
       <c r="D512">
         <v>41.12330393860093</v>
@@ -4687,7 +4687,7 @@
         <v>37408</v>
       </c>
       <c r="B513">
-        <v>88.84128163723813</v>
+        <v>88.84457167091276</v>
       </c>
       <c r="D513">
         <v>39.78324987996433</v>
@@ -4698,7 +4698,7 @@
         <v>37438</v>
       </c>
       <c r="B514">
-        <v>94.05770224142971</v>
+        <v>94.06359565894648</v>
       </c>
       <c r="D514">
         <v>40.61059219798858</v>
@@ -4709,7 +4709,7 @@
         <v>37469</v>
       </c>
       <c r="B515">
-        <v>98.65994746254992</v>
+        <v>98.66473333025834</v>
       </c>
       <c r="D515">
         <v>34.50802429743081</v>
@@ -4720,7 +4720,7 @@
         <v>37500</v>
       </c>
       <c r="B516">
-        <v>113.83231916969</v>
+        <v>113.8383331222476</v>
       </c>
       <c r="D516">
         <v>27.68700072621641</v>
@@ -4731,7 +4731,7 @@
         <v>37530</v>
       </c>
       <c r="B517">
-        <v>113.1431319935155</v>
+        <v>113.1492716886883</v>
       </c>
       <c r="D517">
         <v>32.54575425842174</v>
@@ -4742,7 +4742,7 @@
         <v>37561</v>
       </c>
       <c r="B518">
-        <v>114.3870537738497</v>
+        <v>114.3935444407054</v>
       </c>
       <c r="D518">
         <v>31.85472511755911</v>
@@ -4753,7 +4753,7 @@
         <v>37591</v>
       </c>
       <c r="B519">
-        <v>115.9178186821816</v>
+        <v>115.9276924859186</v>
       </c>
       <c r="D519">
         <v>24.72299013327939</v>
@@ -4764,7 +4764,7 @@
         <v>37622</v>
       </c>
       <c r="B520">
-        <v>113.2392624046818</v>
+        <v>113.244577202114</v>
       </c>
       <c r="D520">
         <v>25.27453372842949</v>
@@ -4775,7 +4775,7 @@
         <v>37653</v>
       </c>
       <c r="B521">
-        <v>122.6727302438945</v>
+        <v>122.6759438035132</v>
       </c>
       <c r="D521">
         <v>31.57377739317538</v>
@@ -4786,7 +4786,7 @@
         <v>37681</v>
       </c>
       <c r="B522">
-        <v>154.9513558188382</v>
+        <v>154.9595546879596</v>
       </c>
       <c r="D522">
         <v>23.27466179007086</v>
@@ -4797,7 +4797,7 @@
         <v>37712</v>
       </c>
       <c r="B523">
-        <v>130.4134808372364</v>
+        <v>130.42518219938</v>
       </c>
       <c r="D523">
         <v>16.24980785700169</v>
@@ -4808,7 +4808,7 @@
         <v>37742</v>
       </c>
       <c r="B524">
-        <v>101.6776027509518</v>
+        <v>101.6855314401487</v>
       </c>
       <c r="D524">
         <v>28.59866539561487</v>
@@ -4819,7 +4819,7 @@
         <v>37773</v>
       </c>
       <c r="B525">
-        <v>82.51440276375936</v>
+        <v>82.52073210287212</v>
       </c>
       <c r="D525">
         <v>32.85968028419182</v>
@@ -4830,7 +4830,7 @@
         <v>37803</v>
       </c>
       <c r="B526">
-        <v>82.56551484587843</v>
+        <v>82.57534944349455</v>
       </c>
       <c r="D526">
         <v>28.43494085532302</v>
@@ -4841,7 +4841,7 @@
         <v>37834</v>
       </c>
       <c r="B527">
-        <v>71.22688733157887</v>
+        <v>71.23392431474886</v>
       </c>
       <c r="D527">
         <v>24.55159244356544</v>
@@ -4852,7 +4852,7 @@
         <v>37865</v>
       </c>
       <c r="B528">
-        <v>76.20561301161031</v>
+        <v>76.21134111173582</v>
       </c>
       <c r="D528">
         <v>39.80838000134943</v>
@@ -4863,7 +4863,7 @@
         <v>37895</v>
       </c>
       <c r="B529">
-        <v>78.33401691760166</v>
+        <v>78.34126034325047</v>
       </c>
       <c r="D529">
         <v>31.40458547999754</v>
@@ -4874,7 +4874,7 @@
         <v>37926</v>
       </c>
       <c r="B530">
-        <v>75.20862638851757</v>
+        <v>75.21309848582165</v>
       </c>
       <c r="D530">
         <v>50.17905300853265</v>
@@ -4885,7 +4885,7 @@
         <v>37956</v>
       </c>
       <c r="B531">
-        <v>69.90254931262179</v>
+        <v>69.90866692378887</v>
       </c>
       <c r="D531">
         <v>46.6441488017279</v>
@@ -4896,7 +4896,7 @@
         <v>37987</v>
       </c>
       <c r="B532">
-        <v>76.73180303959109</v>
+        <v>76.73857317936411</v>
       </c>
       <c r="D532">
         <v>30.87917420265561</v>
@@ -4907,7 +4907,7 @@
         <v>38018</v>
       </c>
       <c r="B533">
-        <v>79.57674053464572</v>
+        <v>79.58371614961932</v>
       </c>
       <c r="D533">
         <v>35.39903333408972</v>
@@ -4918,7 +4918,7 @@
         <v>38047</v>
       </c>
       <c r="B534">
-        <v>74.99368756123754</v>
+        <v>74.99949180902354</v>
       </c>
       <c r="D534">
         <v>27.12360614801739</v>
@@ -4929,7 +4929,7 @@
         <v>38078</v>
       </c>
       <c r="B535">
-        <v>79.71684821401826</v>
+        <v>79.72398823875371</v>
       </c>
       <c r="D535">
         <v>28.38389214120986</v>
@@ -4940,7 +4940,7 @@
         <v>38108</v>
       </c>
       <c r="B536">
-        <v>94.40545962925853</v>
+        <v>94.40995441448936</v>
       </c>
       <c r="D536">
         <v>30.99539496989018</v>
@@ -4951,7 +4951,7 @@
         <v>38139</v>
       </c>
       <c r="B537">
-        <v>77.95091242300214</v>
+        <v>77.95710234432404</v>
       </c>
       <c r="D537">
         <v>22.94156782674528</v>
@@ -4962,7 +4962,7 @@
         <v>38169</v>
       </c>
       <c r="B538">
-        <v>71.89777070346065</v>
+        <v>71.90350899087414</v>
       </c>
       <c r="D538">
         <v>34.2544484803899</v>
@@ -4973,7 +4973,7 @@
         <v>38200</v>
       </c>
       <c r="B539">
-        <v>67.77085153612467</v>
+        <v>67.77622312861554</v>
       </c>
       <c r="D539">
         <v>28.87239753682358</v>
@@ -4984,7 +4984,7 @@
         <v>38231</v>
       </c>
       <c r="B540">
-        <v>73.9922766883366</v>
+        <v>73.99646653768954</v>
       </c>
       <c r="D540">
         <v>28.53132693679391</v>
@@ -4995,7 +4995,7 @@
         <v>38261</v>
       </c>
       <c r="B541">
-        <v>88.91741812810221</v>
+        <v>88.92491967325466</v>
       </c>
       <c r="D541">
         <v>29.3588205040288</v>
@@ -5006,7 +5006,7 @@
         <v>38292</v>
       </c>
       <c r="B542">
-        <v>80.41245605392749</v>
+        <v>80.41834994172602</v>
       </c>
       <c r="D542">
         <v>31.06233174570304</v>
@@ -5017,7 +5017,7 @@
         <v>38322</v>
       </c>
       <c r="B543">
-        <v>67.82116974456984</v>
+        <v>67.83004991528632</v>
       </c>
       <c r="D543">
         <v>30.10064904524504</v>
@@ -5028,7 +5028,7 @@
         <v>38353</v>
       </c>
       <c r="B544">
-        <v>64.16038767713928</v>
+        <v>64.16668912774533</v>
       </c>
       <c r="D544">
         <v>27.60942760942761</v>
@@ -5039,7 +5039,7 @@
         <v>38384</v>
       </c>
       <c r="B545">
-        <v>58.05137932352309</v>
+        <v>58.05649702958101</v>
       </c>
       <c r="D545">
         <v>19.91745056632751</v>
@@ -5050,7 +5050,7 @@
         <v>38412</v>
       </c>
       <c r="B546">
-        <v>56.26476349912048</v>
+        <v>56.27007537004487</v>
       </c>
       <c r="D546">
         <v>23.08211571543671</v>
@@ -5061,7 +5061,7 @@
         <v>38443</v>
       </c>
       <c r="B547">
-        <v>76.23022625973405</v>
+        <v>76.24049403429329</v>
       </c>
       <c r="D547">
         <v>31.50427234196868</v>
@@ -5072,7 +5072,7 @@
         <v>38473</v>
       </c>
       <c r="B548">
-        <v>63.96939970816604</v>
+        <v>63.97245707837673</v>
       </c>
       <c r="D548">
         <v>33.32582751632515</v>
@@ -5083,7 +5083,7 @@
         <v>38504</v>
       </c>
       <c r="B549">
-        <v>71.54221971609451</v>
+        <v>71.54825752460219</v>
       </c>
       <c r="D549">
         <v>38.64912119260146</v>
@@ -5094,7 +5094,7 @@
         <v>38534</v>
       </c>
       <c r="B550">
-        <v>64.83093929006289</v>
+        <v>64.83889133784538</v>
       </c>
       <c r="D550">
         <v>34.02699011596953</v>
@@ -5105,7 +5105,7 @@
         <v>38565</v>
       </c>
       <c r="B551">
-        <v>63.04031579608624</v>
+        <v>63.04799211433685</v>
       </c>
       <c r="D551">
         <v>22.78778574683969</v>
@@ -5116,7 +5116,7 @@
         <v>38596</v>
       </c>
       <c r="B552">
-        <v>92.15904169306154</v>
+        <v>92.16807740522933</v>
       </c>
       <c r="D552">
         <v>22.9043630566097</v>
@@ -5127,7 +5127,7 @@
         <v>38626</v>
       </c>
       <c r="B553">
-        <v>68.55458112847958</v>
+        <v>68.56135815849498</v>
       </c>
       <c r="D553">
         <v>34.35678872749413</v>
@@ -5138,7 +5138,7 @@
         <v>38657</v>
       </c>
       <c r="B554">
-        <v>64.42039898602806</v>
+        <v>64.4249797776489</v>
       </c>
       <c r="D554">
         <v>28.04210913437227</v>
@@ -5149,7 +5149,7 @@
         <v>38687</v>
       </c>
       <c r="B555">
-        <v>66.69571295853952</v>
+        <v>66.70399686008517</v>
       </c>
       <c r="D555">
         <v>32.10837161338709</v>
@@ -5160,7 +5160,7 @@
         <v>38718</v>
       </c>
       <c r="B556">
-        <v>78.19793909395729</v>
+        <v>78.21150002374877</v>
       </c>
       <c r="D556">
         <v>23.6623859955432</v>
@@ -5171,7 +5171,7 @@
         <v>38749</v>
       </c>
       <c r="B557">
-        <v>61.17863073467588</v>
+        <v>61.18742939647976</v>
       </c>
       <c r="D557">
         <v>24.28658166363085</v>
@@ -5182,7 +5182,7 @@
         <v>38777</v>
       </c>
       <c r="B558">
-        <v>61.3899649985112</v>
+        <v>61.39760992370227</v>
       </c>
       <c r="D558">
         <v>24.32237000679273</v>
@@ -5193,7 +5193,7 @@
         <v>38808</v>
       </c>
       <c r="B559">
-        <v>73.97570170067674</v>
+        <v>73.98392708481954</v>
       </c>
       <c r="D559">
         <v>26.57322923525538</v>
@@ -5204,7 +5204,7 @@
         <v>38838</v>
       </c>
       <c r="B560">
-        <v>62.93144510684913</v>
+        <v>62.93668945080138</v>
       </c>
       <c r="D560">
         <v>27.05389969246422</v>
@@ -5215,7 +5215,7 @@
         <v>38869</v>
       </c>
       <c r="B561">
-        <v>72.60757434931148</v>
+        <v>72.61408210837797</v>
       </c>
       <c r="D561">
         <v>26.84156474652227</v>
@@ -5226,7 +5226,7 @@
         <v>38899</v>
       </c>
       <c r="B562">
-        <v>71.11041438834418</v>
+        <v>71.11815604211809</v>
       </c>
       <c r="D562">
         <v>30.90742261071135</v>
@@ -5237,7 +5237,7 @@
         <v>38930</v>
       </c>
       <c r="B563">
-        <v>64.51152773379238</v>
+        <v>64.52291523591346</v>
       </c>
       <c r="D563">
         <v>20.98435711560473</v>
@@ -5248,7 +5248,7 @@
         <v>38961</v>
       </c>
       <c r="B564">
-        <v>57.06962921136628</v>
+        <v>57.07307302995512</v>
       </c>
       <c r="D564">
         <v>26.78760250957539</v>
@@ -5259,7 +5259,7 @@
         <v>38991</v>
       </c>
       <c r="B565">
-        <v>66.81654313526147</v>
+        <v>66.82635050830424</v>
       </c>
       <c r="D565">
         <v>23.69347414026536</v>
@@ -5270,7 +5270,7 @@
         <v>39022</v>
       </c>
       <c r="B566">
-        <v>64.20042399719156</v>
+        <v>64.2086085949077</v>
       </c>
       <c r="D566">
         <v>25.99792936845738</v>
@@ -5281,7 +5281,7 @@
         <v>39052</v>
       </c>
       <c r="B567">
-        <v>61.83685444454832</v>
+        <v>61.84574688195142</v>
       </c>
       <c r="D567">
         <v>26.97579469233012</v>
@@ -5292,7 +5292,7 @@
         <v>39083</v>
       </c>
       <c r="B568">
-        <v>65.10422518991369</v>
+        <v>65.10858379689357</v>
       </c>
       <c r="D568">
         <v>22.50257343260001</v>
@@ -5303,7 +5303,7 @@
         <v>39114</v>
       </c>
       <c r="B569">
-        <v>57.81764258496403</v>
+        <v>57.82362139546598</v>
       </c>
       <c r="D569">
         <v>27.55530375215679</v>
@@ -5314,7 +5314,7 @@
         <v>39142</v>
       </c>
       <c r="B570">
-        <v>67.46514284784318</v>
+        <v>67.47420584862533</v>
       </c>
       <c r="D570">
         <v>26.70623145400593</v>
@@ -5325,7 +5325,7 @@
         <v>39173</v>
       </c>
       <c r="B571">
-        <v>64.4771699330211</v>
+        <v>64.48334498032101</v>
       </c>
       <c r="D571">
         <v>30.43747420553033</v>
@@ -5336,7 +5336,7 @@
         <v>39203</v>
       </c>
       <c r="B572">
-        <v>57.16956791749152</v>
+        <v>57.17513541227581</v>
       </c>
       <c r="D572">
         <v>29.71149307194624</v>
@@ -5347,7 +5347,7 @@
         <v>39234</v>
       </c>
       <c r="B573">
-        <v>57.42454652662787</v>
+        <v>57.43122822458017</v>
       </c>
       <c r="D573">
         <v>34.27456563579319</v>
@@ -5358,7 +5358,7 @@
         <v>39264</v>
       </c>
       <c r="B574">
-        <v>52.31083044638062</v>
+        <v>52.31968378419396</v>
       </c>
       <c r="D574">
         <v>24.37064115527209</v>
@@ -5369,7 +5369,7 @@
         <v>39295</v>
       </c>
       <c r="B575">
-        <v>76.53318885930669</v>
+        <v>76.540727512646</v>
       </c>
       <c r="D575">
         <v>23.17382836575204</v>
@@ -5380,7 +5380,7 @@
         <v>39326</v>
       </c>
       <c r="B576">
-        <v>94.27961799681597</v>
+        <v>94.28849035136464</v>
       </c>
       <c r="D576">
         <v>18.99715042743588</v>
@@ -5391,7 +5391,7 @@
         <v>39356</v>
       </c>
       <c r="B577">
-        <v>79.05740084011211</v>
+        <v>79.06568496629717</v>
       </c>
       <c r="D577">
         <v>25.88229602573716</v>
@@ -5402,7 +5402,7 @@
         <v>39387</v>
       </c>
       <c r="B578">
-        <v>79.24306136856426</v>
+        <v>79.25007815061896</v>
       </c>
       <c r="D578">
         <v>27.3709128569315</v>
@@ -5413,7 +5413,7 @@
         <v>39417</v>
       </c>
       <c r="B579">
-        <v>99.50190893676425</v>
+        <v>99.51455601387137</v>
       </c>
       <c r="D579">
         <v>21.81988206873263</v>
@@ -5424,7 +5424,7 @@
         <v>39448</v>
       </c>
       <c r="B580">
-        <v>132.6734846737841</v>
+        <v>132.6866729092949</v>
       </c>
       <c r="C580">
         <v>17245.12</v>
@@ -5438,7 +5438,7 @@
         <v>39479</v>
       </c>
       <c r="B581">
-        <v>97.69461751213959</v>
+        <v>97.70335257087402</v>
       </c>
       <c r="C581">
         <v>16059.42</v>
@@ -5452,7 +5452,7 @@
         <v>39508</v>
       </c>
       <c r="B582">
-        <v>129.4918739412126</v>
+        <v>129.5137423689665</v>
       </c>
       <c r="C582">
         <v>11944.98</v>
@@ -5466,7 +5466,7 @@
         <v>39539</v>
       </c>
       <c r="B583">
-        <v>98.84602565380808</v>
+        <v>98.86075322955161</v>
       </c>
       <c r="C583">
         <v>14277.65</v>
@@ -5480,7 +5480,7 @@
         <v>39569</v>
       </c>
       <c r="B584">
-        <v>81.65165719096352</v>
+        <v>81.66252393700918</v>
       </c>
       <c r="C584">
         <v>14969.42</v>
@@ -5494,7 +5494,7 @@
         <v>39600</v>
       </c>
       <c r="B585">
-        <v>90.88578271030099</v>
+        <v>90.89590009976827</v>
       </c>
       <c r="C585">
         <v>16455.88</v>
@@ -5508,7 +5508,7 @@
         <v>39630</v>
       </c>
       <c r="B586">
-        <v>108.0442534794908</v>
+        <v>108.0645253639221</v>
       </c>
       <c r="C586">
         <v>9904.023999999999</v>
@@ -5522,7 +5522,7 @@
         <v>39661</v>
       </c>
       <c r="B587">
-        <v>98.95682165284069</v>
+        <v>98.97747596837375</v>
       </c>
       <c r="C587">
         <v>12619.14</v>
@@ -5536,7 +5536,7 @@
         <v>39692</v>
       </c>
       <c r="B588">
-        <v>159.3832704604062</v>
+        <v>159.3999812007487</v>
       </c>
       <c r="C588">
         <v>13118.48</v>
@@ -5550,7 +5550,7 @@
         <v>39722</v>
       </c>
       <c r="B589">
-        <v>209.1097048586926</v>
+        <v>209.1339075488069</v>
       </c>
       <c r="C589">
         <v>15511.13</v>
@@ -5564,7 +5564,7 @@
         <v>39753</v>
       </c>
       <c r="B590">
-        <v>146.354621960849</v>
+        <v>146.3748940593563</v>
       </c>
       <c r="C590">
         <v>16251.19</v>
@@ -5578,7 +5578,7 @@
         <v>39783</v>
       </c>
       <c r="B591">
-        <v>148.5772386984475</v>
+        <v>148.5973638890535</v>
       </c>
       <c r="C591">
         <v>11388.37</v>
@@ -5592,7 +5592,7 @@
         <v>39814</v>
       </c>
       <c r="B592">
-        <v>146.4469512400805</v>
+        <v>146.4705902327778</v>
       </c>
       <c r="C592">
         <v>11772.56</v>
@@ -5606,7 +5606,7 @@
         <v>39845</v>
       </c>
       <c r="B593">
-        <v>144.3202914567662</v>
+        <v>144.3384447416162</v>
       </c>
       <c r="C593">
         <v>15087.54</v>
@@ -5620,7 +5620,7 @@
         <v>39873</v>
       </c>
       <c r="B594">
-        <v>136.3843225312305</v>
+        <v>136.4048018819873</v>
       </c>
       <c r="C594">
         <v>20401.91</v>
@@ -5634,7 +5634,7 @@
         <v>39904</v>
       </c>
       <c r="B595">
-        <v>104.750467348617</v>
+        <v>104.7647747970286</v>
       </c>
       <c r="C595">
         <v>16736.19</v>
@@ -5648,7 +5648,7 @@
         <v>39934</v>
       </c>
       <c r="B596">
-        <v>100.5252328152999</v>
+        <v>100.5353298221776</v>
       </c>
       <c r="C596">
         <v>16066.15</v>
@@ -5662,7 +5662,7 @@
         <v>39965</v>
       </c>
       <c r="B597">
-        <v>130.590504031445</v>
+        <v>130.6222469154595</v>
       </c>
       <c r="C597">
         <v>17881.58</v>
@@ -5676,7 +5676,7 @@
         <v>39995</v>
       </c>
       <c r="B598">
-        <v>117.8068349862697</v>
+        <v>117.8306243183183</v>
       </c>
       <c r="C598">
         <v>12265.1</v>
@@ -5690,7 +5690,7 @@
         <v>40026</v>
       </c>
       <c r="B599">
-        <v>109.2825294451065</v>
+        <v>109.3040517056946</v>
       </c>
       <c r="C599">
         <v>14420.23</v>
@@ -5704,7 +5704,7 @@
         <v>40057</v>
       </c>
       <c r="B600">
-        <v>119.5894097315585</v>
+        <v>119.6230030403589</v>
       </c>
       <c r="C600">
         <v>13766.26</v>
@@ -5718,7 +5718,7 @@
         <v>40087</v>
       </c>
       <c r="B601">
-        <v>98.05984967098308</v>
+        <v>98.08124681223606</v>
       </c>
       <c r="C601">
         <v>19294.3</v>
@@ -5732,7 +5732,7 @@
         <v>40118</v>
       </c>
       <c r="B602">
-        <v>109.3531240195016</v>
+        <v>109.3748415485837</v>
       </c>
       <c r="C602">
         <v>20780.36</v>
@@ -5746,7 +5746,7 @@
         <v>40148</v>
       </c>
       <c r="B603">
-        <v>105.6884738123409</v>
+        <v>105.7067494303369</v>
       </c>
       <c r="C603">
         <v>19363.22</v>
@@ -5760,7 +5760,7 @@
         <v>40179</v>
       </c>
       <c r="B604">
-        <v>120.6612021245091</v>
+        <v>120.6832925792413</v>
       </c>
       <c r="C604">
         <v>23146.06</v>
@@ -5774,7 +5774,7 @@
         <v>40210</v>
       </c>
       <c r="B605">
-        <v>120.4805276530713</v>
+        <v>120.5001794832185</v>
       </c>
       <c r="C605">
         <v>29661.91</v>
@@ -5788,7 +5788,7 @@
         <v>40238</v>
       </c>
       <c r="B606">
-        <v>121.4576163979074</v>
+        <v>121.4842965003669</v>
       </c>
       <c r="C606">
         <v>19562.9</v>
@@ -5802,7 +5802,7 @@
         <v>40269</v>
       </c>
       <c r="B607">
-        <v>109.2956841551418</v>
+        <v>109.3133013264814</v>
       </c>
       <c r="C607">
         <v>23612.76</v>
@@ -5816,7 +5816,7 @@
         <v>40299</v>
       </c>
       <c r="B608">
-        <v>143.2559116011496</v>
+        <v>143.275729035161</v>
       </c>
       <c r="C608">
         <v>22580.16</v>
@@ -5830,7 +5830,7 @@
         <v>40330</v>
       </c>
       <c r="B609">
-        <v>142.0558803941887</v>
+        <v>142.0815533962391</v>
       </c>
       <c r="C609">
         <v>23196.64</v>
@@ -5844,7 +5844,7 @@
         <v>40360</v>
       </c>
       <c r="B610">
-        <v>146.8973348126012</v>
+        <v>146.9209713414436</v>
       </c>
       <c r="C610">
         <v>20535.61</v>
@@ -5858,7 +5858,7 @@
         <v>40391</v>
       </c>
       <c r="B611">
-        <v>121.8966419971194</v>
+        <v>121.9142822258456</v>
       </c>
       <c r="C611">
         <v>32177.13</v>
@@ -5872,7 +5872,7 @@
         <v>40422</v>
       </c>
       <c r="B612">
-        <v>127.4019689670451</v>
+        <v>127.4171863375786</v>
       </c>
       <c r="C612">
         <v>20655.87</v>
@@ -5886,7 +5886,7 @@
         <v>40452</v>
       </c>
       <c r="B613">
-        <v>123.3930288147603</v>
+        <v>123.4111746373698</v>
       </c>
       <c r="C613">
         <v>27171.7</v>
@@ -5900,7 +5900,7 @@
         <v>40483</v>
       </c>
       <c r="B614">
-        <v>127.6933225867409</v>
+        <v>127.7106064877101</v>
       </c>
       <c r="C614">
         <v>13966.62</v>
@@ -5914,7 +5914,7 @@
         <v>40513</v>
       </c>
       <c r="B615">
-        <v>139.8618052657192</v>
+        <v>139.8851147927135</v>
       </c>
       <c r="C615">
         <v>14303.45</v>
@@ -5928,7 +5928,7 @@
         <v>40544</v>
       </c>
       <c r="B616">
-        <v>124.4319245189909</v>
+        <v>124.4622311919417</v>
       </c>
       <c r="C616">
         <v>15449.49</v>
@@ -5942,7 +5942,7 @@
         <v>40575</v>
       </c>
       <c r="B617">
-        <v>97.59754941242497</v>
+        <v>97.60907441428736</v>
       </c>
       <c r="C617">
         <v>14260.61</v>
@@ -5956,7 +5956,7 @@
         <v>40603</v>
       </c>
       <c r="B618">
-        <v>132.0506568877564</v>
+        <v>132.0742589870941</v>
       </c>
       <c r="C618">
         <v>12549.44</v>
@@ -5970,7 +5970,7 @@
         <v>40634</v>
       </c>
       <c r="B619">
-        <v>124.2971112739547</v>
+        <v>124.3235338329732</v>
       </c>
       <c r="C619">
         <v>10858.82</v>
@@ -5984,7 +5984,7 @@
         <v>40664</v>
       </c>
       <c r="B620">
-        <v>94.71435130683935</v>
+        <v>94.72883744682505</v>
       </c>
       <c r="C620">
         <v>14147.12</v>
@@ -5998,7 +5998,7 @@
         <v>40695</v>
       </c>
       <c r="B621">
-        <v>124.3163504073617</v>
+        <v>124.3364118557164</v>
       </c>
       <c r="C621">
         <v>12621</v>
@@ -6012,7 +6012,7 @@
         <v>40725</v>
       </c>
       <c r="B622">
-        <v>151.2515559194783</v>
+        <v>151.2710689534927</v>
       </c>
       <c r="C622">
         <v>16853.56</v>
@@ -6026,7 +6026,7 @@
         <v>40756</v>
       </c>
       <c r="B623">
-        <v>215.6633658502587</v>
+        <v>215.6907848079821</v>
       </c>
       <c r="C623">
         <v>15732.06</v>
@@ -6040,7 +6040,7 @@
         <v>40787</v>
       </c>
       <c r="B624">
-        <v>194.6681021415943</v>
+        <v>194.6959568517232</v>
       </c>
       <c r="C624">
         <v>18687.09</v>
@@ -6054,7 +6054,7 @@
         <v>40817</v>
       </c>
       <c r="B625">
-        <v>173.333928427409</v>
+        <v>173.3647525582189</v>
       </c>
       <c r="C625">
         <v>22334.08</v>
@@ -6068,7 +6068,7 @@
         <v>40848</v>
       </c>
       <c r="B626">
-        <v>195.3298343828691</v>
+        <v>195.3614609151723</v>
       </c>
       <c r="C626">
         <v>18310.76</v>
@@ -6082,7 +6082,7 @@
         <v>40878</v>
       </c>
       <c r="B627">
-        <v>186.3765064742515</v>
+        <v>186.4077038194364</v>
       </c>
       <c r="C627">
         <v>17926.63</v>
@@ -6096,7 +6096,7 @@
         <v>40909</v>
       </c>
       <c r="B628">
-        <v>158.4911275028836</v>
+        <v>158.5157590445268</v>
       </c>
       <c r="C628">
         <v>18402.08</v>
@@ -6110,7 +6110,7 @@
         <v>40940</v>
       </c>
       <c r="B629">
-        <v>148.3457006978099</v>
+        <v>148.374160568207</v>
       </c>
       <c r="C629">
         <v>18511.58</v>
@@ -6124,7 +6124,7 @@
         <v>40969</v>
       </c>
       <c r="B630">
-        <v>146.8754819559385</v>
+        <v>146.903459682541</v>
       </c>
       <c r="C630">
         <v>18355.28</v>
@@ -6138,7 +6138,7 @@
         <v>41000</v>
       </c>
       <c r="B631">
-        <v>136.5113906388785</v>
+        <v>136.5372240879313</v>
       </c>
       <c r="C631">
         <v>15813.25</v>
@@ -6152,7 +6152,7 @@
         <v>41030</v>
       </c>
       <c r="B632">
-        <v>165.5816241104832</v>
+        <v>165.6088549374678</v>
       </c>
       <c r="C632">
         <v>14609.73</v>
@@ -6166,7 +6166,7 @@
         <v>41061</v>
       </c>
       <c r="B633">
-        <v>188.3199506030279</v>
+        <v>188.3483883078947</v>
       </c>
       <c r="C633">
         <v>36236.57</v>
@@ -6180,7 +6180,7 @@
         <v>41091</v>
       </c>
       <c r="B634">
-        <v>153.0008504259557</v>
+        <v>153.0254723297647</v>
       </c>
       <c r="C634">
         <v>33079.34</v>
@@ -6194,7 +6194,7 @@
         <v>41122</v>
       </c>
       <c r="B635">
-        <v>118.6395152792425</v>
+        <v>118.6556210585757</v>
       </c>
       <c r="C635">
         <v>35269.25</v>
@@ -6208,7 +6208,7 @@
         <v>41153</v>
       </c>
       <c r="B636">
-        <v>156.1129086387031</v>
+        <v>156.1375351831097</v>
       </c>
       <c r="C636">
         <v>24828.08</v>
@@ -6222,7 +6222,7 @@
         <v>41183</v>
       </c>
       <c r="B637">
-        <v>151.6641576128439</v>
+        <v>151.6872857495252</v>
       </c>
       <c r="C637">
         <v>20310.6</v>
@@ -6236,7 +6236,7 @@
         <v>41214</v>
       </c>
       <c r="B638">
-        <v>161.0453080752882</v>
+        <v>161.0703212750844</v>
       </c>
       <c r="C638">
         <v>30968.85</v>
@@ -6250,7 +6250,7 @@
         <v>41244</v>
       </c>
       <c r="B639">
-        <v>170.054119881207</v>
+        <v>170.0831506396141</v>
       </c>
       <c r="C639">
         <v>39555.1</v>
@@ -6264,7 +6264,7 @@
         <v>41275</v>
       </c>
       <c r="B640">
-        <v>165.9691697799868</v>
+        <v>165.9964059980464</v>
       </c>
       <c r="C640">
         <v>30948.78</v>
@@ -6278,7 +6278,7 @@
         <v>41306</v>
       </c>
       <c r="B641">
-        <v>123.4223284977621</v>
+        <v>123.439959189748</v>
       </c>
       <c r="C641">
         <v>20086.67</v>
@@ -6292,7 +6292,7 @@
         <v>41334</v>
       </c>
       <c r="B642">
-        <v>145.2720300527023</v>
+        <v>145.2909752034043</v>
       </c>
       <c r="C642">
         <v>31259.48</v>
@@ -6306,7 +6306,7 @@
         <v>41365</v>
       </c>
       <c r="B643">
-        <v>139.8204551480889</v>
+        <v>139.8455096755501</v>
       </c>
       <c r="C643">
         <v>20386.52</v>
@@ -6320,7 +6320,7 @@
         <v>41395</v>
       </c>
       <c r="B644">
-        <v>108.4598926307481</v>
+        <v>108.4748599345831</v>
       </c>
       <c r="C644">
         <v>14386.56</v>
@@ -6334,7 +6334,7 @@
         <v>41426</v>
       </c>
       <c r="B645">
-        <v>130.3413693661682</v>
+        <v>130.3628576954784</v>
       </c>
       <c r="C645">
         <v>13789.65</v>
@@ -6348,7 +6348,7 @@
         <v>41456</v>
       </c>
       <c r="B646">
-        <v>108.6170283905156</v>
+        <v>108.6329876377047</v>
       </c>
       <c r="C646">
         <v>15417.21</v>
@@ -6362,7 +6362,7 @@
         <v>41487</v>
       </c>
       <c r="B647">
-        <v>127.510476414801</v>
+        <v>127.5315953585069</v>
       </c>
       <c r="C647">
         <v>14158.71</v>
@@ -6376,7 +6376,7 @@
         <v>41518</v>
       </c>
       <c r="B648">
-        <v>141.4821197742111</v>
+        <v>141.5032166762949</v>
       </c>
       <c r="C648">
         <v>15448.87</v>
@@ -6390,7 +6390,7 @@
         <v>41548</v>
       </c>
       <c r="B649">
-        <v>167.4256894369283</v>
+        <v>167.4577111007315</v>
       </c>
       <c r="C649">
         <v>21717.67</v>
@@ -6404,7 +6404,7 @@
         <v>41579</v>
       </c>
       <c r="B650">
-        <v>108.1266979750649</v>
+        <v>108.1519240515667</v>
       </c>
       <c r="C650">
         <v>12641.28</v>
@@ -6418,7 +6418,7 @@
         <v>41609</v>
       </c>
       <c r="B651">
-        <v>128.2845358958587</v>
+        <v>128.310470434717</v>
       </c>
       <c r="C651">
         <v>17539.43</v>
@@ -6432,7 +6432,7 @@
         <v>41640</v>
       </c>
       <c r="B652">
-        <v>119.7317561313776</v>
+        <v>119.7538198882918</v>
       </c>
       <c r="C652">
         <v>21842.74</v>
@@ -6446,7 +6446,7 @@
         <v>41671</v>
       </c>
       <c r="B653">
-        <v>100.9305516271209</v>
+        <v>100.9456042423108</v>
       </c>
       <c r="C653">
         <v>21788.17</v>
@@ -6460,7 +6460,7 @@
         <v>41699</v>
       </c>
       <c r="B654">
-        <v>114.6293136127351</v>
+        <v>114.6506400943257</v>
       </c>
       <c r="C654">
         <v>19225.85</v>
@@ -6474,7 +6474,7 @@
         <v>41730</v>
       </c>
       <c r="B655">
-        <v>118.4943550890548</v>
+        <v>118.5220146820977</v>
       </c>
       <c r="C655">
         <v>13590.26</v>
@@ -6488,7 +6488,7 @@
         <v>41760</v>
       </c>
       <c r="B656">
-        <v>111.0484787784812</v>
+        <v>111.0650071172092</v>
       </c>
       <c r="C656">
         <v>17282.29</v>
@@ -6502,7 +6502,7 @@
         <v>41791</v>
       </c>
       <c r="B657">
-        <v>96.49482870558502</v>
+        <v>96.51738334775199</v>
       </c>
       <c r="C657">
         <v>19739.77</v>
@@ -6516,7 +6516,7 @@
         <v>41821</v>
       </c>
       <c r="B658">
-        <v>99.92635829313264</v>
+        <v>99.94650408854484</v>
       </c>
       <c r="C658">
         <v>20342.31</v>
@@ -6530,7 +6530,7 @@
         <v>41852</v>
       </c>
       <c r="B659">
-        <v>105.1266240796308</v>
+        <v>105.1431681781496</v>
       </c>
       <c r="C659">
         <v>13934.56</v>
@@ -6544,7 +6544,7 @@
         <v>41883</v>
       </c>
       <c r="B660">
-        <v>128.6270512738081</v>
+        <v>128.6500099226577</v>
       </c>
       <c r="C660">
         <v>14067.97</v>
@@ -6558,7 +6558,7 @@
         <v>41913</v>
       </c>
       <c r="B661">
-        <v>114.7244560152645</v>
+        <v>114.7456557088522</v>
       </c>
       <c r="C661">
         <v>14332.98</v>
@@ -6572,7 +6572,7 @@
         <v>41944</v>
       </c>
       <c r="B662">
-        <v>128.5824873826561</v>
+        <v>128.6080595669804</v>
       </c>
       <c r="C662">
         <v>25064.32</v>
@@ -6586,7 +6586,7 @@
         <v>41974</v>
       </c>
       <c r="B663">
-        <v>113.9249266383227</v>
+        <v>113.9373971650104</v>
       </c>
       <c r="C663">
         <v>17021.78</v>
@@ -6600,7 +6600,7 @@
         <v>42005</v>
       </c>
       <c r="B664">
-        <v>135.1560574639586</v>
+        <v>135.1771603649389</v>
       </c>
       <c r="C664">
         <v>25443.97</v>
@@ -6614,7 +6614,7 @@
         <v>42036</v>
       </c>
       <c r="B665">
-        <v>122.7173567072491</v>
+        <v>122.7378516914768</v>
       </c>
       <c r="C665">
         <v>29456.69</v>
@@ -6628,7 +6628,7 @@
         <v>42064</v>
       </c>
       <c r="B666">
-        <v>117.892472083014</v>
+        <v>117.9176179813466</v>
       </c>
       <c r="C666">
         <v>29700.53</v>
@@ -6642,7 +6642,7 @@
         <v>42095</v>
       </c>
       <c r="B667">
-        <v>100.8295329808796</v>
+        <v>100.8433658402262</v>
       </c>
       <c r="C667">
         <v>22530.23</v>
@@ -6656,7 +6656,7 @@
         <v>42125</v>
       </c>
       <c r="B668">
-        <v>101.5045605550446</v>
+        <v>101.5193429796456</v>
       </c>
       <c r="C668">
         <v>21803.69</v>
@@ -6670,7 +6670,7 @@
         <v>42156</v>
       </c>
       <c r="B669">
-        <v>118.7324853799622</v>
+        <v>118.7530725634764</v>
       </c>
       <c r="C669">
         <v>25042.18</v>
@@ -6684,7 +6684,7 @@
         <v>42186</v>
       </c>
       <c r="B670">
-        <v>122.9575613982952</v>
+        <v>122.9862860317201</v>
       </c>
       <c r="C670">
         <v>26689.86</v>
@@ -6698,7 +6698,7 @@
         <v>42217</v>
       </c>
       <c r="B671">
-        <v>117.1942552555096</v>
+        <v>117.2071917885623</v>
       </c>
       <c r="C671">
         <v>22015.01</v>
@@ -6712,7 +6712,7 @@
         <v>42248</v>
       </c>
       <c r="B672">
-        <v>153.8468129752725</v>
+        <v>153.8674762333925</v>
       </c>
       <c r="C672">
         <v>20895.17</v>
@@ -6726,7 +6726,7 @@
         <v>42278</v>
       </c>
       <c r="B673">
-        <v>115.4049805479583</v>
+        <v>115.4236527406059</v>
       </c>
       <c r="C673">
         <v>25572.94</v>
@@ -6740,7 +6740,7 @@
         <v>42309</v>
       </c>
       <c r="B674">
-        <v>106.0671427963777</v>
+        <v>106.0877554600118</v>
       </c>
       <c r="C674">
         <v>21316.99</v>
@@ -6754,7 +6754,7 @@
         <v>42339</v>
       </c>
       <c r="B675">
-        <v>116.9304568020112</v>
+        <v>116.9507555175347</v>
       </c>
       <c r="C675">
         <v>16845.93</v>
@@ -6768,7 +6768,7 @@
         <v>42370</v>
       </c>
       <c r="B676">
-        <v>140.9892223943959</v>
+        <v>141.0168003856225</v>
       </c>
       <c r="C676">
         <v>18498.77</v>
@@ -6782,7 +6782,7 @@
         <v>42401</v>
       </c>
       <c r="B677">
-        <v>145.7843210258418</v>
+        <v>145.8078140508598</v>
       </c>
       <c r="C677">
         <v>20446.37</v>
@@ -6796,7 +6796,7 @@
         <v>42430</v>
       </c>
       <c r="B678">
-        <v>162.3570134718867</v>
+        <v>162.3910166409273</v>
       </c>
       <c r="C678">
         <v>22191.53</v>
@@ -6810,7 +6810,7 @@
         <v>42461</v>
       </c>
       <c r="B679">
-        <v>146.4108057327558</v>
+        <v>146.4469297566512</v>
       </c>
       <c r="C679">
         <v>15032.11</v>
@@ -6824,7 +6824,7 @@
         <v>42491</v>
       </c>
       <c r="B680">
-        <v>123.7831007242268</v>
+        <v>123.8090023597251</v>
       </c>
       <c r="C680">
         <v>21466.45</v>
@@ -6838,7 +6838,7 @@
         <v>42522</v>
       </c>
       <c r="B681">
-        <v>220.8728020774366</v>
+        <v>220.9011973956959</v>
       </c>
       <c r="C681">
         <v>17423.54</v>
@@ -6852,7 +6852,7 @@
         <v>42552</v>
       </c>
       <c r="B682">
-        <v>189.0423066647005</v>
+        <v>189.0666232119036</v>
       </c>
       <c r="C682">
         <v>45973.39</v>
@@ -6866,7 +6866,7 @@
         <v>42583</v>
       </c>
       <c r="B683">
-        <v>136.5317545738078</v>
+        <v>136.5567453861132</v>
       </c>
       <c r="C683">
         <v>44083.75</v>
@@ -6880,7 +6880,7 @@
         <v>42614</v>
       </c>
       <c r="B684">
-        <v>139.1730854086321</v>
+        <v>139.2049211818659</v>
       </c>
       <c r="C684">
         <v>28374.06</v>
@@ -6894,7 +6894,7 @@
         <v>42644</v>
       </c>
       <c r="B685">
-        <v>122.4195136717544</v>
+        <v>122.4424806979685</v>
       </c>
       <c r="C685">
         <v>18582.51</v>
@@ -6908,7 +6908,7 @@
         <v>42675</v>
       </c>
       <c r="B686">
-        <v>215.2101427761876</v>
+        <v>215.2387763793166</v>
       </c>
       <c r="C686">
         <v>26743.54</v>
@@ -6922,7 +6922,7 @@
         <v>42705</v>
       </c>
       <c r="B687">
-        <v>186.7824680495278</v>
+        <v>186.8106113706972</v>
       </c>
       <c r="C687">
         <v>30556.11</v>
@@ -6936,7 +6936,7 @@
         <v>42736</v>
       </c>
       <c r="B688">
-        <v>255.4434097930697</v>
+        <v>255.5100494285929</v>
       </c>
       <c r="C688">
         <v>38065.04</v>
@@ -6950,7 +6950,7 @@
         <v>42767</v>
       </c>
       <c r="B689">
-        <v>189.7675798341925</v>
+        <v>189.8065487433733</v>
       </c>
       <c r="C689">
         <v>34721.72</v>
@@ -6964,7 +6964,7 @@
         <v>42795</v>
       </c>
       <c r="B690">
-        <v>250.2677520015539</v>
+        <v>250.3446963339073</v>
       </c>
       <c r="C690">
         <v>28585.07</v>
@@ -6978,7 +6978,7 @@
         <v>42826</v>
       </c>
       <c r="B691">
-        <v>177.8815889276257</v>
+        <v>177.9198220675771</v>
       </c>
       <c r="C691">
         <v>22038.28</v>
@@ -6992,7 +6992,7 @@
         <v>42856</v>
       </c>
       <c r="B692">
-        <v>142.7399061650148</v>
+        <v>142.7687887921635</v>
       </c>
       <c r="C692">
         <v>20300.89</v>
@@ -7006,7 +7006,7 @@
         <v>42887</v>
       </c>
       <c r="B693">
-        <v>175.6228523587295</v>
+        <v>175.6724110677694</v>
       </c>
       <c r="C693">
         <v>15384.21</v>
@@ -7020,7 +7020,7 @@
         <v>42917</v>
       </c>
       <c r="B694">
-        <v>172.3961235202145</v>
+        <v>172.4458646142616</v>
       </c>
       <c r="C694">
         <v>16915.2</v>
@@ -7034,7 +7034,7 @@
         <v>42948</v>
       </c>
       <c r="B695">
-        <v>141.851116371386</v>
+        <v>141.8866804636533</v>
       </c>
       <c r="C695">
         <v>21567.95</v>
@@ -7048,7 +7048,7 @@
         <v>42979</v>
       </c>
       <c r="B696">
-        <v>163.5537092801123</v>
+        <v>163.5985896742135</v>
       </c>
       <c r="C696">
         <v>15468.96</v>
@@ -7062,7 +7062,7 @@
         <v>43009</v>
       </c>
       <c r="B697">
-        <v>149.8850413341657</v>
+        <v>149.9161750754167</v>
       </c>
       <c r="C697">
         <v>20376.24</v>
@@ -7076,7 +7076,7 @@
         <v>43040</v>
       </c>
       <c r="B698">
-        <v>168.114299890126</v>
+        <v>168.1591772257453</v>
       </c>
       <c r="C698">
         <v>20821.27</v>
@@ -7090,7 +7090,7 @@
         <v>43070</v>
       </c>
       <c r="B699">
-        <v>155.6314187938965</v>
+        <v>155.6681030797795</v>
       </c>
       <c r="C699">
         <v>27945.3</v>
@@ -7104,7 +7104,7 @@
         <v>43101</v>
       </c>
       <c r="B700">
-        <v>180.2249522168576</v>
+        <v>180.2844515066332</v>
       </c>
       <c r="C700">
         <v>21420.12</v>
@@ -7118,7 +7118,7 @@
         <v>43132</v>
       </c>
       <c r="B701">
-        <v>130.8439785699663</v>
+        <v>130.8782900577072</v>
       </c>
       <c r="C701">
         <v>17493.08</v>
@@ -7132,7 +7132,7 @@
         <v>43160</v>
       </c>
       <c r="B702">
-        <v>181.5805435221526</v>
+        <v>181.638700854879</v>
       </c>
       <c r="C702">
         <v>12197.86</v>
@@ -7146,7 +7146,7 @@
         <v>43191</v>
       </c>
       <c r="B703">
-        <v>173.5997492556866</v>
+        <v>173.6540012662262</v>
       </c>
       <c r="C703">
         <v>12920.08</v>
@@ -7160,7 +7160,7 @@
         <v>43221</v>
       </c>
       <c r="B704">
-        <v>172.6340525363185</v>
+        <v>172.6817242143045</v>
       </c>
       <c r="C704">
         <v>19883.07</v>
@@ -7174,7 +7174,7 @@
         <v>43252</v>
       </c>
       <c r="B705">
-        <v>163.6014598771262</v>
+        <v>163.6462963473224</v>
       </c>
       <c r="C705">
         <v>25859.36</v>
@@ -7188,7 +7188,7 @@
         <v>43282</v>
       </c>
       <c r="B706">
-        <v>238.6516447692211</v>
+        <v>238.739934918368</v>
       </c>
       <c r="C706">
         <v>22117.7</v>
@@ -7202,7 +7202,7 @@
         <v>43313</v>
       </c>
       <c r="B707">
-        <v>182.2535259626346</v>
+        <v>182.3126761231703</v>
       </c>
       <c r="C707">
         <v>30926.84</v>
@@ -7216,7 +7216,7 @@
         <v>43344</v>
       </c>
       <c r="B708">
-        <v>205.8718334486073</v>
+        <v>205.9418993446218</v>
       </c>
       <c r="C708">
         <v>27915.26</v>
@@ -7230,7 +7230,7 @@
         <v>43374</v>
       </c>
       <c r="B709">
-        <v>225.9861261656528</v>
+        <v>226.0635595477576</v>
       </c>
       <c r="C709">
         <v>22779.45</v>
@@ -7244,7 +7244,7 @@
         <v>43405</v>
       </c>
       <c r="B710">
-        <v>265.399744618659</v>
+        <v>265.4982650310577</v>
       </c>
       <c r="C710">
         <v>18793.39</v>
@@ -7258,7 +7258,7 @@
         <v>43435</v>
       </c>
       <c r="B711">
-        <v>218.3676679155184</v>
+        <v>218.4257367252193</v>
       </c>
       <c r="C711">
         <v>26231.1</v>
@@ -7272,7 +7272,7 @@
         <v>43466</v>
       </c>
       <c r="B712">
-        <v>243.7360260955487</v>
+        <v>243.8024859897635</v>
       </c>
       <c r="C712">
         <v>36382.28</v>
@@ -7286,7 +7286,7 @@
         <v>43497</v>
       </c>
       <c r="B713">
-        <v>177.8851171260278</v>
+        <v>177.94327321086</v>
       </c>
       <c r="C713">
         <v>51178.63</v>
@@ -7300,7 +7300,7 @@
         <v>43525</v>
       </c>
       <c r="B714">
-        <v>251.8893248039258</v>
+        <v>251.986220996224</v>
       </c>
       <c r="C714">
         <v>35809.01</v>
@@ -7314,7 +7314,7 @@
         <v>43556</v>
       </c>
       <c r="B715">
-        <v>204.9451894289951</v>
+        <v>205.0180191149946</v>
       </c>
       <c r="C715">
         <v>27627.57</v>
@@ -7328,7 +7328,7 @@
         <v>43586</v>
       </c>
       <c r="B716">
-        <v>238.2967598139895</v>
+        <v>238.3807214281135</v>
       </c>
       <c r="C716">
         <v>57517.98</v>
@@ -7342,7 +7342,7 @@
         <v>43617</v>
       </c>
       <c r="B717">
-        <v>350.0857278620082</v>
+        <v>350.2308830017263</v>
       </c>
       <c r="C717">
         <v>41085.63</v>
@@ -7356,7 +7356,7 @@
         <v>43647</v>
       </c>
       <c r="B718">
-        <v>259.8895879399614</v>
+        <v>259.9741197004991</v>
       </c>
       <c r="C718">
         <v>22822.22</v>
@@ -7370,7 +7370,7 @@
         <v>43678</v>
       </c>
       <c r="B719">
-        <v>293.2323196220287</v>
+        <v>293.3206114570096</v>
       </c>
       <c r="C719">
         <v>33126.3</v>
@@ -7384,7 +7384,7 @@
         <v>43709</v>
       </c>
       <c r="B720">
-        <v>250.5311113198518</v>
+        <v>250.6110680347673</v>
       </c>
       <c r="C720">
         <v>32220.86</v>
@@ -7398,7 +7398,7 @@
         <v>43739</v>
       </c>
       <c r="B721">
-        <v>208.9731323950919</v>
+        <v>209.0291485427257</v>
       </c>
       <c r="C721">
         <v>39475.35</v>
@@ -7412,7 +7412,7 @@
         <v>43770</v>
       </c>
       <c r="B722">
-        <v>259.3983656597027</v>
+        <v>259.4912238983889</v>
       </c>
       <c r="C722">
         <v>39040.36</v>
@@ -7426,7 +7426,7 @@
         <v>43800</v>
       </c>
       <c r="B723">
-        <v>244.6375426420794</v>
+        <v>244.7206967161762</v>
       </c>
       <c r="C723">
         <v>52683.16</v>
@@ -7440,7 +7440,7 @@
         <v>43831</v>
       </c>
       <c r="B724">
-        <v>199.4429235293324</v>
+        <v>199.5056678598146</v>
       </c>
       <c r="C724">
         <v>42258.74</v>
@@ -7454,7 +7454,7 @@
         <v>43862</v>
       </c>
       <c r="B725">
-        <v>198.1079270878888</v>
+        <v>198.1615212936142</v>
       </c>
       <c r="C725">
         <v>39762.47</v>
@@ -7468,7 +7468,7 @@
         <v>43891</v>
       </c>
       <c r="B726">
-        <v>311.5879846530289</v>
+        <v>311.6427468254961</v>
       </c>
       <c r="C726">
         <v>56223.62</v>
@@ -7482,7 +7482,7 @@
         <v>43922</v>
       </c>
       <c r="B727">
-        <v>335.00924143313</v>
+        <v>335.0807987281287</v>
       </c>
       <c r="C727">
         <v>21438.99</v>
@@ -7496,7 +7496,7 @@
         <v>43952</v>
       </c>
       <c r="B728">
-        <v>424.1398946815541</v>
+        <v>424.2603487784621</v>
       </c>
       <c r="C728">
         <v>26490.73</v>
@@ -7510,7 +7510,7 @@
         <v>43983</v>
       </c>
       <c r="B729">
-        <v>325.175522947399</v>
+        <v>325.2644271983714</v>
       </c>
       <c r="C729">
         <v>28737.92</v>
@@ -7524,7 +7524,7 @@
         <v>44013</v>
       </c>
       <c r="B730">
-        <v>308.7287709296871</v>
+        <v>308.8091152478705</v>
       </c>
       <c r="C730">
         <v>26888.29</v>
@@ -7538,7 +7538,7 @@
         <v>44044</v>
       </c>
       <c r="B731">
-        <v>304.4728172850744</v>
+        <v>304.575175254195</v>
       </c>
       <c r="C731">
         <v>20430.03</v>
@@ -7552,7 +7552,7 @@
         <v>44075</v>
       </c>
       <c r="B732">
-        <v>328.0290650225485</v>
+        <v>328.1502705800482</v>
       </c>
       <c r="C732">
         <v>26409.8</v>
@@ -7566,7 +7566,7 @@
         <v>44105</v>
       </c>
       <c r="B733">
-        <v>313.2323743217535</v>
+        <v>313.3327396140153</v>
       </c>
       <c r="C733">
         <v>28194.52</v>
@@ -7580,7 +7580,7 @@
         <v>44136</v>
       </c>
       <c r="B734">
-        <v>421.6950694836916</v>
+        <v>421.8613280215853</v>
       </c>
       <c r="C734">
         <v>25062.17</v>
@@ -7594,7 +7594,7 @@
         <v>44166</v>
       </c>
       <c r="B735">
-        <v>315.1333996876784</v>
+        <v>315.2522255663239</v>
       </c>
       <c r="C735">
         <v>14886.35</v>
@@ -7608,7 +7608,7 @@
         <v>44197</v>
       </c>
       <c r="B736">
-        <v>283.3385568572959</v>
+        <v>283.4355501549978</v>
       </c>
       <c r="C736">
         <v>11956.53</v>
@@ -7622,7 +7622,7 @@
         <v>44228</v>
       </c>
       <c r="B737">
-        <v>200.1835364747843</v>
+        <v>200.2478114641451</v>
       </c>
       <c r="C737">
         <v>9050.271000000001</v>
@@ -7636,7 +7636,7 @@
         <v>44256</v>
       </c>
       <c r="B738">
-        <v>221.5585593870635</v>
+        <v>221.6317771193362</v>
       </c>
       <c r="C738">
         <v>13602.12</v>
@@ -7650,7 +7650,7 @@
         <v>44287</v>
       </c>
       <c r="B739">
-        <v>206.5210490364654</v>
+        <v>206.5810678094904</v>
       </c>
       <c r="C739">
         <v>14889.97</v>
@@ -7664,7 +7664,7 @@
         <v>44317</v>
       </c>
       <c r="B740">
-        <v>179.9193447624978</v>
+        <v>179.9670211525667</v>
       </c>
       <c r="C740">
         <v>15392.93</v>
@@ -7678,7 +7678,7 @@
         <v>44348</v>
       </c>
       <c r="B741">
-        <v>181.2608313438116</v>
+        <v>181.3020096490278</v>
       </c>
       <c r="C741">
         <v>21543.41</v>
@@ -7692,7 +7692,7 @@
         <v>44378</v>
       </c>
       <c r="B742">
-        <v>190.6786072971198</v>
+        <v>190.7335152842316</v>
       </c>
       <c r="C742">
         <v>19371.39</v>
@@ -7706,7 +7706,7 @@
         <v>44409</v>
       </c>
       <c r="B743">
-        <v>210.2421323525534</v>
+        <v>210.3200427154354</v>
       </c>
       <c r="C743">
         <v>17169.7</v>
@@ -7720,7 +7720,7 @@
         <v>44440</v>
       </c>
       <c r="B744">
-        <v>220.055401456625</v>
+        <v>220.1285189007347</v>
       </c>
       <c r="C744">
         <v>23904</v>
@@ -7734,7 +7734,7 @@
         <v>44470</v>
       </c>
       <c r="B745">
-        <v>195.5815015860607</v>
+        <v>195.6532883440151</v>
       </c>
       <c r="C745">
         <v>10477.78</v>
@@ -7748,7 +7748,7 @@
         <v>44501</v>
       </c>
       <c r="B746">
-        <v>234.940512768753</v>
+        <v>235.0302014765577</v>
       </c>
       <c r="C746">
         <v>14556.52</v>
@@ -7762,7 +7762,7 @@
         <v>44531</v>
       </c>
       <c r="B747">
-        <v>267.8200583141847</v>
+        <v>267.9229771818789</v>
       </c>
       <c r="C747">
         <v>28225.75</v>
@@ -7776,7 +7776,7 @@
         <v>44562</v>
       </c>
       <c r="B748">
-        <v>233.8764755148842</v>
+        <v>233.9620671705152</v>
       </c>
       <c r="C748">
         <v>25576.78</v>
@@ -7790,7 +7790,7 @@
         <v>44593</v>
       </c>
       <c r="B749">
-        <v>186.52405088818</v>
+        <v>186.568678768579</v>
       </c>
       <c r="C749">
         <v>25212.72</v>
@@ -7804,7 +7804,7 @@
         <v>44621</v>
       </c>
       <c r="B750">
-        <v>305.9717362436615</v>
+        <v>306.0470879959728</v>
       </c>
       <c r="C750">
         <v>27256.75</v>
@@ -7818,7 +7818,7 @@
         <v>44652</v>
       </c>
       <c r="B751">
-        <v>288.4020015462461</v>
+        <v>288.4587322649264</v>
       </c>
       <c r="C751">
         <v>41669.1</v>
@@ -7832,7 +7832,7 @@
         <v>44682</v>
       </c>
       <c r="B752">
-        <v>290.88664476173</v>
+        <v>290.9634481101851</v>
       </c>
       <c r="C752">
         <v>25064.35</v>
@@ -7846,7 +7846,7 @@
         <v>44713</v>
       </c>
       <c r="B753">
-        <v>265.7012567819397</v>
+        <v>265.739759703214</v>
       </c>
       <c r="C753">
         <v>23022.65</v>
@@ -7860,7 +7860,7 @@
         <v>44743</v>
       </c>
       <c r="B754">
-        <v>305.85829635061</v>
+        <v>305.9329306061541</v>
       </c>
       <c r="C754">
         <v>19588.13</v>
@@ -7874,7 +7874,7 @@
         <v>44774</v>
       </c>
       <c r="B755">
-        <v>242.0287534480998</v>
+        <v>242.1303504951733</v>
       </c>
       <c r="C755">
         <v>31577.91</v>
@@ -7888,7 +7888,7 @@
         <v>44805</v>
       </c>
       <c r="B756">
-        <v>254.2908674386986</v>
+        <v>254.3714047755861</v>
       </c>
       <c r="C756">
         <v>22559.72</v>
@@ -7902,7 +7902,7 @@
         <v>44835</v>
       </c>
       <c r="B757">
-        <v>269.4533717435408</v>
+        <v>269.5370102297978</v>
       </c>
       <c r="C757">
         <v>28962.72</v>
@@ -7916,7 +7916,7 @@
         <v>44866</v>
       </c>
       <c r="B758">
-        <v>327.4666526437741</v>
+        <v>327.5913978896877</v>
       </c>
       <c r="C758">
         <v>34628.48</v>
@@ -7930,7 +7930,7 @@
         <v>44896</v>
       </c>
       <c r="B759">
-        <v>256.119085629851</v>
+        <v>256.2219491488248</v>
       </c>
       <c r="C759">
         <v>17405.95</v>
@@ -7944,7 +7944,7 @@
         <v>44927</v>
       </c>
       <c r="B760">
-        <v>229.4344047136671</v>
+        <v>229.5096668725043</v>
       </c>
       <c r="C760">
         <v>29339.84</v>
@@ -7958,7 +7958,7 @@
         <v>44958</v>
       </c>
       <c r="B761">
-        <v>263.6088054282293</v>
+        <v>263.6985779779534</v>
       </c>
       <c r="C761">
         <v>32027.81</v>
@@ -7972,7 +7972,7 @@
         <v>44986</v>
       </c>
       <c r="B762">
-        <v>340.0478419091528</v>
+        <v>340.1524081238038</v>
       </c>
       <c r="C762">
         <v>17736.47</v>
@@ -7986,7 +7986,7 @@
         <v>45017</v>
       </c>
       <c r="B763">
-        <v>284.594423863973</v>
+        <v>284.6330027390407</v>
       </c>
       <c r="C763">
         <v>37638.8</v>
@@ -8000,7 +8000,7 @@
         <v>45047</v>
       </c>
       <c r="B764">
-        <v>214.1470709557728</v>
+        <v>214.1639835101327</v>
       </c>
       <c r="C764">
         <v>37309.42</v>
@@ -8014,7 +8014,7 @@
         <v>45078</v>
       </c>
       <c r="B765">
-        <v>238.5516076879327</v>
+        <v>238.5786392032969</v>
       </c>
       <c r="C765">
         <v>17679.01</v>
@@ -8028,7 +8028,7 @@
         <v>45108</v>
       </c>
       <c r="B766">
-        <v>203.3165481546905</v>
+        <v>203.3524691491816</v>
       </c>
       <c r="C766">
         <v>15649.48</v>
@@ -8042,7 +8042,7 @@
         <v>45139</v>
       </c>
       <c r="B767">
-        <v>188.5062460562743</v>
+        <v>188.6362229513092</v>
       </c>
       <c r="C767">
         <v>22258</v>
@@ -8056,7 +8056,7 @@
         <v>45170</v>
       </c>
       <c r="B768">
-        <v>213.3662207415541</v>
+        <v>213.466529030591</v>
       </c>
       <c r="C768">
         <v>16389.48</v>
@@ -8070,7 +8070,7 @@
         <v>45200</v>
       </c>
       <c r="B769">
-        <v>199.5182059088209</v>
+        <v>199.5842079104344</v>
       </c>
       <c r="C769">
         <v>15354.48</v>
@@ -8084,7 +8084,7 @@
         <v>45231</v>
       </c>
       <c r="B770">
-        <v>221.2667577692244</v>
+        <v>221.3427213251015</v>
       </c>
       <c r="C770">
         <v>17278.77</v>
@@ -8098,7 +8098,7 @@
         <v>45261</v>
       </c>
       <c r="B771">
-        <v>250.0764864054442</v>
+        <v>250.1822697256955</v>
       </c>
       <c r="C771">
         <v>17108.95</v>
@@ -8112,7 +8112,7 @@
         <v>45292</v>
       </c>
       <c r="B772">
-        <v>263.2592532215682</v>
+        <v>263.3542934176646</v>
       </c>
       <c r="C772">
         <v>17865.73</v>
@@ -8126,7 +8126,7 @@
         <v>45323</v>
       </c>
       <c r="B773">
-        <v>182.027901346455</v>
+        <v>182.0628533443758</v>
       </c>
       <c r="C773">
         <v>16358.07</v>
@@ -8140,7 +8140,7 @@
         <v>45352</v>
       </c>
       <c r="B774">
-        <v>189.9424988432265</v>
+        <v>189.9759238771742</v>
       </c>
       <c r="C774">
         <v>17273.86</v>
@@ -8154,7 +8154,7 @@
         <v>45383</v>
       </c>
       <c r="B775">
-        <v>178.2142726945309</v>
+        <v>178.2169959090607</v>
       </c>
       <c r="C775">
         <v>16746.02</v>
@@ -8168,7 +8168,7 @@
         <v>45413</v>
       </c>
       <c r="B776">
-        <v>191.463613188574</v>
+        <v>191.4851152481054</v>
       </c>
       <c r="C776">
         <v>15083.26</v>
@@ -8182,7 +8182,7 @@
         <v>45444</v>
       </c>
       <c r="B777">
-        <v>175.6565346054368</v>
+        <v>175.6365379379351</v>
       </c>
       <c r="C777">
         <v>14606.01</v>
@@ -8196,7 +8196,7 @@
         <v>45474</v>
       </c>
       <c r="B778">
-        <v>244.9220087686824</v>
+        <v>244.960343996371</v>
       </c>
       <c r="C778">
         <v>15929.92</v>
@@ -8210,7 +8210,7 @@
         <v>45505</v>
       </c>
       <c r="B779">
-        <v>202.0231839652091</v>
+        <v>202.1807387189281</v>
       </c>
       <c r="C779">
         <v>21425.35</v>
@@ -8224,7 +8224,7 @@
         <v>45536</v>
       </c>
       <c r="B780">
-        <v>211.5609024072818</v>
+        <v>211.6742003799142</v>
       </c>
       <c r="C780">
         <v>20372.42</v>
@@ -8238,7 +8238,7 @@
         <v>45566</v>
       </c>
       <c r="B781">
-        <v>215.3629698101637</v>
+        <v>215.4550666195515</v>
       </c>
       <c r="C781">
         <v>21669.22</v>
@@ -8252,7 +8252,7 @@
         <v>45597</v>
       </c>
       <c r="B782">
-        <v>282.0324461590359</v>
+        <v>282.1164052475826</v>
       </c>
       <c r="C782">
         <v>24333.03</v>
@@ -8266,7 +8266,7 @@
         <v>45627</v>
       </c>
       <c r="B783">
-        <v>336.7069532385526</v>
+        <v>336.8410505757261</v>
       </c>
       <c r="C783">
         <v>30375.61</v>
@@ -8280,7 +8280,7 @@
         <v>45658</v>
       </c>
       <c r="B784">
-        <v>309.7589678901567</v>
+        <v>309.8253883999113</v>
       </c>
       <c r="C784">
         <v>41383.23</v>
@@ -8294,7 +8294,7 @@
         <v>45689</v>
       </c>
       <c r="B785">
-        <v>319.8927203737342</v>
+        <v>319.9406981561854</v>
       </c>
       <c r="C785">
         <v>48816.02</v>
@@ -8308,7 +8308,7 @@
         <v>45717</v>
       </c>
       <c r="B786">
-        <v>458.7146789809843</v>
+        <v>458.7697145880418</v>
       </c>
       <c r="C786">
         <v>53189.5</v>
@@ -8322,7 +8322,7 @@
         <v>45748</v>
       </c>
       <c r="B787">
-        <v>585.0494981064056</v>
+        <v>585.0689625613861</v>
       </c>
       <c r="C787">
         <v>72733.48</v>
@@ -8336,7 +8336,7 @@
         <v>45778</v>
       </c>
       <c r="B788">
-        <v>487.6818354052014</v>
+        <v>487.7082325800611</v>
       </c>
       <c r="C788">
         <v>77997.67999999999</v>
@@ -8350,7 +8350,7 @@
         <v>45809</v>
       </c>
       <c r="B789">
-        <v>357.5952415089372</v>
+        <v>357.87896040807</v>
       </c>
       <c r="C789">
         <v>84305.33</v>
@@ -8364,10 +8364,35 @@
         <v>45839</v>
       </c>
       <c r="B790">
-        <v>377.1468026885581</v>
+        <v>395.0715850419593</v>
+      </c>
+      <c r="C790">
+        <v>95509.25999999999</v>
       </c>
       <c r="D790">
         <v>554.85</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B791">
+        <v>312.8893413839743</v>
+      </c>
+      <c r="C791">
+        <v>105558.3</v>
+      </c>
+      <c r="D791">
+        <v>575.84</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D792">
+        <v>465.310904678215</v>
       </c>
     </row>
   </sheetData>
